--- a/Task2/wwwroot/Files/ОСВ для тренинга.xlsx
+++ b/Task2/wwwroot/Files/ОСВ для тренинга.xlsx
@@ -3102,7 +3102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{a8d2b8d1-9d4b-4e90-8cc4-876ea44fa9bc}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1620bd3e-f7b4-4e56-aa68-ff67c5d25bf2}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N627"/>
   <sheetViews>
@@ -21077,7 +21077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{c169f8d9-9f91-46b5-bf44-392444855a90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{f3ec436f-cf03-4a82-aab0-29c52f5d1d6a}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
